--- a/src/test/resource/DataFile.xlsx
+++ b/src/test/resource/DataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Automation\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E80B25-9E82-45B4-B1B7-62F920E3A4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF84CE-9BE5-4C3B-87F4-0F450FBF8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>S.No</t>
   </si>
@@ -39,34 +39,133 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Tell me about gupshup</t>
-  </si>
-  <si>
-    <t>I want to book a flight from  chennai to mumbai</t>
-  </si>
-  <si>
-    <t>who is the Ceo of gupshup</t>
-  </si>
-  <si>
-    <t>What are the benefits of messaging for financial services?</t>
-  </si>
-  <si>
-    <t>What’s the difference between a chatbot and an AI Agent?</t>
-  </si>
-  <si>
-    <t>Where can conversational banking be deployed?</t>
-  </si>
-  <si>
-    <t>What are some of the real estate use cases conversational engagement can address?</t>
-  </si>
-  <si>
-    <t>How can Click-To-WhatsApp Ads be leveraged for real estate?</t>
-  </si>
-  <si>
-    <t>Can an AI Agent assign a prospect to the relevant agent?</t>
-  </si>
-  <si>
-    <t>Will the AI Agent personalize my customer’s shopping experience?</t>
+    <t>How can I view or download my electricity bill online?</t>
+  </si>
+  <si>
+    <t>You can view and download your bill by logging into the "Consumer Portal" on the TNPdcl website using your Service Connection Number (SCN).</t>
+  </si>
+  <si>
+    <t>What are the different methods available for paying my electricity bill?</t>
+  </si>
+  <si>
+    <t>TNPdcl offers various payment methods including online payment through the website, UPI, mobile apps, online banking, and at authorized collection centers/banks.</t>
+  </si>
+  <si>
+    <t>I have a complaint about my bill. What should I do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can register a billing-related complaint through the "Lodge a Complaint" section on the website or by contacting your local TNPdcl office.</t>
+  </si>
+  <si>
+    <t>Is there a facility for online bill payment, and is it secure?</t>
+  </si>
+  <si>
+    <t>Yes, TNPdcl provides a secure online payment gateway on its website for consumers to pay their bills conveniently.</t>
+  </si>
+  <si>
+    <t>How can I apply for a new electricity connection?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can apply for a new connection online through the "New Service Connection" section on the TNPdcl website or by visiting the nearest TNPdcl office.</t>
+  </si>
+  <si>
+    <t>How long does it take to get a new electricity connection?</t>
+  </si>
+  <si>
+    <t>The time frame is as per the regulations, but it usually depends on the completeness of your application and the feasibility in your area.</t>
+  </si>
+  <si>
+    <t>How can I change the name on my electricity connection (e.g., after buying a new house)?</t>
+  </si>
+  <si>
+    <t>You need to apply for a "Name Transfer" or "Succession of Service" by submitting a required form and supporting documents to your local TNPdcl office.</t>
+  </si>
+  <si>
+    <t>I am moving to a new house. How do I close my current electricity connection?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You must submit a application for "Permanent Disconnection" and clear all pending dues. A final bill will be generated after the meter is removed.</t>
+  </si>
+  <si>
+    <t>My electricity has been disconnected. Who should I contact?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In case of disconnection, you should immediately contact your local TNPdcl subdivision office or call the 24x7 helpline number provided on the website.</t>
+  </si>
+  <si>
+    <t>How can I register a complaint about a power outage or a faulty meter?</t>
+  </si>
+  <si>
+    <t>You can lodge a complaint online via the "Lodge a Complaint" portal using your SCN, or by calling the toll-free customer care number.</t>
+  </si>
+  <si>
+    <t>How can I check the status of a complaint I have already registered?</t>
+  </si>
+  <si>
+    <t>You can track your complaint status by logging into the consumer portal or using the complaint reference number you received at the time of registration.</t>
+  </si>
+  <si>
+    <t>Is there a toll-free customer care number for TNPdcl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, the toll-free number and other contact details for your specific area are listed in the "Contact Us" section of the website.</t>
+  </si>
+  <si>
+    <t>What is the tariff structure for domestic, commercial, and industrial consumers?</t>
+  </si>
+  <si>
+    <t>The detailed tariff rates (slabs and charges) for all categories of consumers are available in the "Tariff Orders" section on the TNPdcl website.</t>
+  </si>
+  <si>
+    <t>Are there any government schemes for farmers or low-income households?</t>
+  </si>
+  <si>
+    <t>Yes, TNPdcl implements various government schemes like the Kutir Jyoti Scheme. Details can be found under the "Schemes" or "Consumer Services" section.</t>
+  </si>
+  <si>
+    <t>What is the procedure for surrendering my electricity connection?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You need to submit a written application for permanent disconnection at your local office and settle the final bill after the meter is removed.</t>
+  </si>
+  <si>
+    <t>What should I do if I see a broken electric pole or a hanging live wire?</t>
+  </si>
+  <si>
+    <t>This is an emergency. You should immediately call the 24x7 TNPdcl emergency helpline or your local office. Do not go near the broken equipment.</t>
+  </si>
+  <si>
+    <t>How can I calculate my approximate electricity consumption?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The website may have a calculator tool, or you can manually calculate it by multiplying the wattage of your appliances by their hours of use.</t>
+  </si>
+  <si>
+    <t>Where can I find the list of TNPdcl offices and their contact details in my district?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The "Contact Us" or "Office Locator" section of the website provides a comprehensive list of all circle and division offices with addresses and phone numbers.</t>
+  </si>
+  <si>
+    <t>What are the consequences of late payment of my electricity bill?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Late payments generally attract a penalty or interest charge as per the tariff order. Consistent non-payment may lead to disconnection of supply.</t>
+  </si>
+  <si>
+    <t>What documents are required to apply for a new domestic electricity connection?</t>
+  </si>
+  <si>
+    <t>Typically, you need proof of identity, proof of address, and proof of ownership/occupancy of the premises. The exact list is available on the application form.</t>
+  </si>
+  <si>
+    <t>Expected Intent</t>
+  </si>
+  <si>
+    <t>Expected Response</t>
+  </si>
+  <si>
+    <t>FAQ</t>
   </si>
 </sst>
 </file>
@@ -84,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -123,10 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,137 +510,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
